--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1125,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1160,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1218,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1315,10 +1327,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1362,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1408,28 +1420,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1674,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1709,28 +1721,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1767,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1980,10 +1992,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2027,28 +2039,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2073,28 +2085,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2385,10 +2397,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2432,28 +2444,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2478,28 +2490,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2703,10 +2715,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2750,28 +2762,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2796,28 +2808,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2963,10 +2975,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3010,28 +3022,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3056,28 +3068,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3194,10 +3206,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3241,28 +3253,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3287,28 +3299,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3396,10 +3408,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3443,28 +3455,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3489,28 +3501,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3975,10 +3987,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4022,28 +4034,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4068,28 +4080,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4467,10 +4479,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="J150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4514,28 +4526,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4560,28 +4572,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4930,10 +4942,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4977,28 +4989,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5023,28 +5035,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5219,10 +5231,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
+      <c r="J176" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
